--- a/Chuong6_Library/LearnPandas/Data/Sales.xlsx
+++ b/Chuong6_Library/LearnPandas/Data/Sales.xlsx
@@ -1,53 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Works/1.UEL/Python/Demo/DataAnalystExample/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C54AC122-A2E9-4AFA-8F3D-2ADD287F95E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9395E27-EBF0-2B44-A849-D4D580A7E9BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="460" windowWidth="27680" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sales" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
+    <t>Price</t>
+  </si>
+  <si>
     <t>Week</t>
   </si>
   <si>
-    <t>Sales_Volume</t>
+    <t>Ads_Cost</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Ads_Cost</t>
+    <t>Sales_Volume</t>
   </si>
 </sst>
 </file>
@@ -57,7 +41,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -592,24 +576,24 @@
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="Đầu đề 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Đầu đề 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Đầu đề 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Đầu đề 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Đầu ra" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Đầu vào" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ghi chú" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Kiểm tra Ô" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Ô được Nối kết" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Tiêu đề" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Tính toán" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Tổng" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Tốt" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Trung lập" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Văn bản Cảnh báo" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Văn bản Giải thích" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Xấu" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -927,28 +911,28 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -962,7 +946,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -976,7 +960,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -990,7 +974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1004,7 +988,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1018,7 +1002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1032,7 +1016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1046,7 +1030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1060,7 +1044,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1074,7 +1058,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1088,7 +1072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1102,7 +1086,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1116,7 +1100,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1130,7 +1114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1144,7 +1128,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
